--- a/out/artifacts/Price_For_Counters_jar/my.xlsx
+++ b/out/artifacts/Price_For_Counters_jar/my.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Месяц</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Общая стоимость</t>
   </si>
   <si>
-    <t>ASdasdas</t>
+    <t>Март</t>
   </si>
 </sst>
 </file>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="A6" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,130 +675,6 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="S4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T4" t="n" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="S5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T5" t="n" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="P1:P2"/>

--- a/out/artifacts/Price_For_Counters_jar/my.xlsx
+++ b/out/artifacts/Price_For_Counters_jar/my.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Месяц</t>
   </si>
@@ -63,7 +63,13 @@
     <t>Общая стоимость</t>
   </si>
   <si>
-    <t>Март</t>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A3:XFD6"/>
@@ -675,6 +681,130 @@
         <v>6.43</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>754.49</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" t="n" s="1">
+        <v>243.16</v>
+      </c>
+      <c r="G4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I4" t="n" s="1">
+        <v>50.93</v>
+      </c>
+      <c r="J4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n" s="1">
+        <v>243.16</v>
+      </c>
+      <c r="M4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O4" t="n" s="1">
+        <v>50.93</v>
+      </c>
+      <c r="P4" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q4" t="n" s="1">
+        <v>159.88</v>
+      </c>
+      <c r="R4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="T4" t="n" s="1">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>73940.02</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E5" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F5" t="n" s="1">
+        <v>23829.68</v>
+      </c>
+      <c r="G5" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I5" t="n" s="1">
+        <v>4991.14</v>
+      </c>
+      <c r="J5" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K5" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="L5" t="n" s="1">
+        <v>23829.68</v>
+      </c>
+      <c r="M5" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O5" t="n" s="1">
+        <v>4991.14</v>
+      </c>
+      <c r="P5" t="n" s="1">
+        <v>392.0</v>
+      </c>
+      <c r="Q5" t="n" s="1">
+        <v>15668.24</v>
+      </c>
+      <c r="R5" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S5" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="T5" t="n" s="1">
+        <v>630.14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="P1:P2"/>
